--- a/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-DRILLHOLE_STRUCTURE_03_invalid.xlsx
+++ b/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-DRILLHOLE_STRUCTURE_03_invalid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/gsq/gsq-geochem/profiles/gsq/scripts/geochemxl/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC9BC56-FF45-4647-A152-3163B0DD1525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F351BD2B-D372-8842-A826-C2E104D73A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54020" yWindow="1660" windowWidth="58720" windowHeight="23280" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="31900" windowHeight="20500" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRILLHOLE_STRUCTURE" sheetId="16" r:id="rId1"/>
@@ -95,10 +95,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="TANG Joseph - Personal View" guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1928" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="842" activeSheetId="13"/>
+    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
+    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
     <customWorkbookView name="DAVIES Rhys - Personal View" guid="{853B6239-A439-411F-9927-AA08BF431DBB}" mergeInterval="0" personalView="1" xWindow="2926" yWindow="109" windowWidth="2700" windowHeight="1354" tabRatio="842" activeSheetId="9"/>
-    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
-    <customWorkbookView name="TANG Joseph - Personal View" guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1928" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="842" activeSheetId="13"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -664,9 +664,6 @@
     <t>Y*</t>
   </si>
   <si>
-    <t>BEDDING</t>
-  </si>
-  <si>
     <t>ANGULAR MATRIX-SUPPORTED BRECCIA</t>
   </si>
   <si>
@@ -701,6 +698,9 @@
   </si>
   <si>
     <t>DD12348</t>
+  </si>
+  <si>
+    <t>BEDDING STRUCTURE</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1790,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1824,7 +1824,7 @@
         <v>178</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J1" s="55" t="s">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>32</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="25.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2034,19 +2034,19 @@
         <v>179</v>
       </c>
       <c r="E8" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="60" t="s">
         <v>190</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>191</v>
       </c>
       <c r="G8" s="60" t="s">
         <v>180</v>
       </c>
       <c r="H8" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="60" t="s">
         <v>192</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>193</v>
       </c>
       <c r="J8" s="60" t="s">
         <v>15</v>
@@ -2055,88 +2055,88 @@
     <row r="9" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63"/>
       <c r="B9" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="69">
         <v>150</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>182</v>
+      <c r="D9" s="69" t="s">
+        <v>194</v>
       </c>
       <c r="E9" s="65">
         <v>-60</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="65">
         <v>45</v>
       </c>
       <c r="H9" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="66" t="s">
         <v>187</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="J9" s="66" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="72">
         <v>150</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E10" s="73">
         <v>-60</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G10" s="73">
         <v>45</v>
       </c>
       <c r="H10" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="75" t="s">
         <v>187</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" s="75" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="72">
         <v>150</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="73">
         <v>-23</v>
       </c>
       <c r="F11" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G11" s="73">
         <v>45</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I11" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J11" s="75"/>
     </row>
@@ -2214,20 +2214,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="53">
-      <selection activeCell="D9" sqref="D9"/>
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="80" topLeftCell="E1">
+      <selection activeCell="J8" sqref="J8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="80">
       <selection sqref="A1:K9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="80" topLeftCell="E1">
-      <selection activeCell="J8" sqref="J8"/>
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="53">
+      <selection activeCell="D9" sqref="D9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -5054,22 +5054,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -8740,22 +8740,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -15754,22 +15754,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -23846,22 +23846,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -24384,25 +24384,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24829,25 +24829,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24887,10 +24887,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24908,20 +24908,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </AssignedTo>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe27245e9bb914202a9dc14def4cd737">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" xmlns:ns3="bcd33c6e-30cb-4633-b8ec-d716de95c77b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b8902f26a47aaca738f2017df961ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
@@ -25152,6 +25138,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </AssignedTo>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
   <ds:schemaRefs>
@@ -25161,23 +25161,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C12B8D-B909-479A-8F46-E01C349A93B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF79EA6D-2196-4B94-BF37-7CE4AD2619E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25194,4 +25177,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C12B8D-B909-479A-8F46-E01C349A93B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>